--- a/Documentation/weather box r3.xlsx
+++ b/Documentation/weather box r3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\astro\WeatherBox\AM_WeatherBox\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\astro\WeatherBox\AM_WeatherBox\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8A44657-BFD2-4A5A-872B-544C20A0AB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD6EAF7-80FD-4998-8F5F-658E7EAC3DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2232" yWindow="2232" windowWidth="16512" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Astronomy weather monitor bill of materials</t>
   </si>
@@ -174,6 +176,12 @@
   </si>
   <si>
     <t>https://smile.amazon.com/gp/product/B07L34YTSR</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/DZS-Elec-Converter-Adjustable-Regulator/dp/B07L64GJ42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step up voltage regulator </t>
   </si>
 </sst>
 </file>
@@ -663,7 +671,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -736,7 +744,7 @@
         <v>14.99</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G13" si="0">A6*F6</f>
+        <f t="shared" ref="G6:G14" si="0">A6*F6</f>
         <v>14.99</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -825,20 +833,17 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1">
-        <v>12.86</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>12.86</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -846,23 +851,20 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1">
-        <v>12.5</v>
+        <v>12.86</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>12.86</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -870,20 +872,23 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
       </c>
       <c r="F13" s="1">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -891,10 +896,20 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -902,53 +917,64 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -957,12 +983,14 @@
     <hyperlink ref="H7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="H6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{6E6C1D13-508D-4617-8B47-BFA4598AE3BA}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{05658201-8119-49F2-A737-F2389650B84E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId7"/>
+  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId9"/>
 </worksheet>
 </file>
 
